--- a/tests/data.gui/test/nmr/dsn.2/kev.nmr.constants.data.xlsx
+++ b/tests/data.gui/test/nmr/dsn.2/kev.nmr.constants.data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve">tBu_TPP</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970105</t>
   </si>
 </sst>
 </file>
@@ -722,8 +725,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.970104594578065</v>
+      <c r="A2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1407,10 +1410,10 @@
         <v>0.01</v>
       </c>
       <c r="B2" t="n">
-        <v>9.95350464033846e-21</v>
+        <v>0.00000000000000000000995350464033846</v>
       </c>
       <c r="C2" t="n">
-        <v>4.64953602493723e-23</v>
+        <v>0.0000000000000000000000464953602493723</v>
       </c>
     </row>
     <row r="3">
@@ -1421,7 +1424,7 @@
         <v>0.021201931633555</v>
       </c>
       <c r="C3" t="n">
-        <v>9.80683678653036e-05</v>
+        <v>0.0000980683678653036</v>
       </c>
     </row>
     <row r="4">
